--- a/data/Census_data_variables.xlsx
+++ b/data/Census_data_variables.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genevievelyons/DataFiles and Classwork/Statistical Learning - BST 263 /COVID-SES/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{435C4EBE-04D2-3246-AFF2-DDB75248DDF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{569C7B87-E518-3F41-8D35-3BB0801891D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="27240" windowHeight="15220"/>
+    <workbookView xWindow="680" yWindow="1440" windowWidth="27240" windowHeight="15220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Census_data_variables" sheetId="1" r:id="rId1"/>
+    <sheet name="Census_data_variables_2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Census_data_variables!$A$1:$K$1117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Census_data_variables_2!$A$1:$K$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8939" uniqueCount="3395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10034" uniqueCount="3398">
   <si>
     <t>name</t>
   </si>
@@ -10218,6 +10221,15 @@
   </si>
   <si>
     <t>Include?</t>
+  </si>
+  <si>
+    <t>Gen</t>
+  </si>
+  <si>
+    <t>Gabrielle</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
   </si>
 </sst>
 </file>
@@ -10541,7 +10553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -10656,6 +10668,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10701,9 +10722,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10749,7 +10771,21 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -11067,11 +11103,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K1117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11120,7 +11157,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -11152,7 +11189,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -11185,7 +11222,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -11218,7 +11255,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -11251,7 +11288,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11284,7 +11321,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -11317,7 +11354,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -11350,7 +11387,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -11383,7 +11420,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -11416,7 +11453,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -11449,7 +11486,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -11482,7 +11519,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -11515,7 +11552,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -11548,7 +11585,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -11647,7 +11684,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -11680,7 +11717,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -11713,7 +11750,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -11746,7 +11783,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -11779,7 +11816,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -11812,7 +11849,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -11845,7 +11882,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -11878,7 +11915,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -11911,7 +11948,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -11944,7 +11981,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -11977,7 +12014,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -12010,7 +12047,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -12043,7 +12080,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -12076,7 +12113,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -12109,7 +12146,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -12142,7 +12179,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -12175,7 +12212,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -12208,7 +12245,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -12241,7 +12278,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -12274,7 +12311,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -12307,7 +12344,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -12340,7 +12377,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -12373,7 +12410,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -12406,7 +12443,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -12439,7 +12476,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>139</v>
       </c>
@@ -12472,7 +12509,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -12505,7 +12542,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>145</v>
       </c>
@@ -12538,7 +12575,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -12571,7 +12608,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>151</v>
       </c>
@@ -12604,7 +12641,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>154</v>
       </c>
@@ -12637,7 +12674,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -12670,7 +12707,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -12703,7 +12740,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>163</v>
       </c>
@@ -12736,7 +12773,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>166</v>
       </c>
@@ -12769,7 +12806,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>169</v>
       </c>
@@ -12802,7 +12839,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -12835,7 +12872,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>175</v>
       </c>
@@ -12868,7 +12905,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -12901,7 +12938,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -12934,7 +12971,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>184</v>
       </c>
@@ -12967,7 +13004,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -13000,7 +13037,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>190</v>
       </c>
@@ -13033,7 +13070,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -13066,7 +13103,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>196</v>
       </c>
@@ -13165,7 +13202,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>206</v>
       </c>
@@ -13195,10 +13232,10 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>209</v>
       </c>
@@ -13228,10 +13265,10 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>212</v>
       </c>
@@ -13261,10 +13298,10 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -13294,10 +13331,10 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>218</v>
       </c>
@@ -13327,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -13363,7 +13400,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>224</v>
       </c>
@@ -13393,10 +13430,10 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>227</v>
       </c>
@@ -13426,10 +13463,10 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>230</v>
       </c>
@@ -13459,10 +13496,10 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -13492,10 +13529,10 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>236</v>
       </c>
@@ -13525,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -13660,7 +13697,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>251</v>
       </c>
@@ -13693,7 +13730,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>254</v>
       </c>
@@ -13726,7 +13763,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>257</v>
       </c>
@@ -13759,7 +13796,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>260</v>
       </c>
@@ -13792,7 +13829,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>263</v>
       </c>
@@ -13825,7 +13862,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>266</v>
       </c>
@@ -13858,7 +13895,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>269</v>
       </c>
@@ -13891,7 +13928,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>272</v>
       </c>
@@ -13924,7 +13961,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>275</v>
       </c>
@@ -13957,7 +13994,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>278</v>
       </c>
@@ -13990,7 +14027,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>281</v>
       </c>
@@ -14023,7 +14060,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>284</v>
       </c>
@@ -14056,7 +14093,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>287</v>
       </c>
@@ -14089,7 +14126,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>290</v>
       </c>
@@ -14122,7 +14159,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>293</v>
       </c>
@@ -14155,7 +14192,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>296</v>
       </c>
@@ -14188,7 +14225,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>299</v>
       </c>
@@ -14221,7 +14258,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>302</v>
       </c>
@@ -14254,7 +14291,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>305</v>
       </c>
@@ -14287,7 +14324,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>308</v>
       </c>
@@ -14320,7 +14357,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>311</v>
       </c>
@@ -14353,7 +14390,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>314</v>
       </c>
@@ -14386,7 +14423,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>317</v>
       </c>
@@ -14419,7 +14456,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>320</v>
       </c>
@@ -14452,7 +14489,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>323</v>
       </c>
@@ -14485,7 +14522,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>326</v>
       </c>
@@ -14518,7 +14555,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>329</v>
       </c>
@@ -14551,7 +14588,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>332</v>
       </c>
@@ -14584,7 +14621,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>335</v>
       </c>
@@ -14617,7 +14654,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>338</v>
       </c>
@@ -14650,7 +14687,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>341</v>
       </c>
@@ -14683,7 +14720,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>344</v>
       </c>
@@ -14716,7 +14753,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>347</v>
       </c>
@@ -14749,7 +14786,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>350</v>
       </c>
@@ -14848,7 +14885,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>360</v>
       </c>
@@ -14881,7 +14918,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>363</v>
       </c>
@@ -14914,7 +14951,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>366</v>
       </c>
@@ -14947,7 +14984,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>369</v>
       </c>
@@ -14980,7 +15017,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>371</v>
       </c>
@@ -15013,7 +15050,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>374</v>
       </c>
@@ -15046,7 +15083,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>377</v>
       </c>
@@ -15079,7 +15116,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>380</v>
       </c>
@@ -15112,7 +15149,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>383</v>
       </c>
@@ -15145,7 +15182,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>385</v>
       </c>
@@ -15178,7 +15215,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>388</v>
       </c>
@@ -15211,7 +15248,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>391</v>
       </c>
@@ -15244,7 +15281,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>394</v>
       </c>
@@ -15277,7 +15314,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>397</v>
       </c>
@@ -15310,7 +15347,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>401</v>
       </c>
@@ -15343,7 +15380,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>404</v>
       </c>
@@ -15376,7 +15413,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>407</v>
       </c>
@@ -15409,7 +15446,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>410</v>
       </c>
@@ -15442,7 +15479,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>413</v>
       </c>
@@ -15475,7 +15512,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>416</v>
       </c>
@@ -15508,7 +15545,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>419</v>
       </c>
@@ -15541,7 +15578,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>422</v>
       </c>
@@ -15574,7 +15611,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>425</v>
       </c>
@@ -15607,7 +15644,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>428</v>
       </c>
@@ -15640,7 +15677,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>431</v>
       </c>
@@ -15673,7 +15710,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>434</v>
       </c>
@@ -15706,7 +15743,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>437</v>
       </c>
@@ -15739,7 +15776,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>440</v>
       </c>
@@ -15772,7 +15809,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>443</v>
       </c>
@@ -15805,7 +15842,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>445</v>
       </c>
@@ -15838,7 +15875,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>448</v>
       </c>
@@ -15871,7 +15908,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>451</v>
       </c>
@@ -15904,7 +15941,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>454</v>
       </c>
@@ -15937,7 +15974,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>457</v>
       </c>
@@ -15970,7 +16007,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>460</v>
       </c>
@@ -16003,7 +16040,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>463</v>
       </c>
@@ -16036,7 +16073,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>466</v>
       </c>
@@ -16069,7 +16106,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>469</v>
       </c>
@@ -16102,7 +16139,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>472</v>
       </c>
@@ -16135,7 +16172,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>475</v>
       </c>
@@ -16168,7 +16205,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>478</v>
       </c>
@@ -16201,7 +16238,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>481</v>
       </c>
@@ -16234,7 +16271,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>484</v>
       </c>
@@ -16267,7 +16304,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>487</v>
       </c>
@@ -16300,7 +16337,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>489</v>
       </c>
@@ -16333,7 +16370,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>492</v>
       </c>
@@ -16366,7 +16403,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>495</v>
       </c>
@@ -16399,7 +16436,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>498</v>
       </c>
@@ -16432,7 +16469,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>501</v>
       </c>
@@ -16465,7 +16502,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>504</v>
       </c>
@@ -16498,7 +16535,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>507</v>
       </c>
@@ -16531,7 +16568,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>510</v>
       </c>
@@ -16564,7 +16601,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>513</v>
       </c>
@@ -16597,7 +16634,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>516</v>
       </c>
@@ -16630,7 +16667,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>519</v>
       </c>
@@ -16663,7 +16700,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>522</v>
       </c>
@@ -16696,7 +16733,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>525</v>
       </c>
@@ -16729,7 +16766,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>528</v>
       </c>
@@ -16795,7 +16832,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>536</v>
       </c>
@@ -16828,7 +16865,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>539</v>
       </c>
@@ -16894,7 +16931,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>547</v>
       </c>
@@ -16927,7 +16964,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>550</v>
       </c>
@@ -16960,7 +16997,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>553</v>
       </c>
@@ -16990,10 +17027,10 @@
         <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>557</v>
       </c>
@@ -17023,10 +17060,10 @@
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>559</v>
       </c>
@@ -17056,10 +17093,10 @@
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>561</v>
       </c>
@@ -17089,10 +17126,10 @@
         <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>563</v>
       </c>
@@ -17122,10 +17159,10 @@
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>565</v>
       </c>
@@ -17155,10 +17192,10 @@
         <v>1</v>
       </c>
       <c r="K184" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>567</v>
       </c>
@@ -17188,10 +17225,10 @@
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>570</v>
       </c>
@@ -17221,10 +17258,10 @@
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>573</v>
       </c>
@@ -17254,10 +17291,10 @@
         <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>576</v>
       </c>
@@ -17287,10 +17324,10 @@
         <v>1</v>
       </c>
       <c r="K188" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>578</v>
       </c>
@@ -17320,10 +17357,10 @@
         <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>580</v>
       </c>
@@ -17353,10 +17390,10 @@
         <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>582</v>
       </c>
@@ -17386,10 +17423,10 @@
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>584</v>
       </c>
@@ -17419,10 +17456,10 @@
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>586</v>
       </c>
@@ -17452,10 +17489,10 @@
         <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>588</v>
       </c>
@@ -17485,10 +17522,10 @@
         <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>591</v>
       </c>
@@ -17518,10 +17555,10 @@
         <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>594</v>
       </c>
@@ -17551,10 +17588,10 @@
         <v>1</v>
       </c>
       <c r="K196" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>596</v>
       </c>
@@ -17584,10 +17621,10 @@
         <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>598</v>
       </c>
@@ -17617,10 +17654,10 @@
         <v>1</v>
       </c>
       <c r="K198" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>601</v>
       </c>
@@ -17650,7 +17687,7 @@
         <v>1</v>
       </c>
       <c r="K199" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
@@ -18214,7 +18251,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>642</v>
       </c>
@@ -18247,7 +18284,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>645</v>
       </c>
@@ -18280,7 +18317,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>648</v>
       </c>
@@ -18313,7 +18350,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>651</v>
       </c>
@@ -18346,7 +18383,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>654</v>
       </c>
@@ -18379,7 +18416,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>657</v>
       </c>
@@ -18412,7 +18449,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>660</v>
       </c>
@@ -18445,7 +18482,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>663</v>
       </c>
@@ -18478,7 +18515,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>666</v>
       </c>
@@ -18511,7 +18548,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>669</v>
       </c>
@@ -18544,7 +18581,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>672</v>
       </c>
@@ -18610,7 +18647,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>679</v>
       </c>
@@ -18676,7 +18713,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>685</v>
       </c>
@@ -18709,7 +18746,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>688</v>
       </c>
@@ -18742,7 +18779,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>691</v>
       </c>
@@ -18808,7 +18845,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>697</v>
       </c>
@@ -18841,7 +18878,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>700</v>
       </c>
@@ -18874,7 +18911,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>703</v>
       </c>
@@ -18904,10 +18941,10 @@
         <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>707</v>
       </c>
@@ -18940,7 +18977,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>709</v>
       </c>
@@ -18970,10 +19007,10 @@
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>712</v>
       </c>
@@ -19003,10 +19040,10 @@
         <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>715</v>
       </c>
@@ -19036,10 +19073,10 @@
         <v>1</v>
       </c>
       <c r="K241" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>718</v>
       </c>
@@ -19069,10 +19106,10 @@
         <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>721</v>
       </c>
@@ -19102,10 +19139,10 @@
         <v>1</v>
       </c>
       <c r="K243" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>724</v>
       </c>
@@ -19135,10 +19172,10 @@
         <v>1</v>
       </c>
       <c r="K244" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>727</v>
       </c>
@@ -19168,10 +19205,10 @@
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>730</v>
       </c>
@@ -19201,10 +19238,10 @@
         <v>1</v>
       </c>
       <c r="K246" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>733</v>
       </c>
@@ -19237,7 +19274,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>735</v>
       </c>
@@ -19267,10 +19304,10 @@
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>738</v>
       </c>
@@ -19300,10 +19337,10 @@
         <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>741</v>
       </c>
@@ -19333,10 +19370,10 @@
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>744</v>
       </c>
@@ -19366,10 +19403,10 @@
         <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>747</v>
       </c>
@@ -19399,10 +19436,10 @@
         <v>1</v>
       </c>
       <c r="K252" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>750</v>
       </c>
@@ -19432,10 +19469,10 @@
         <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>753</v>
       </c>
@@ -19465,10 +19502,10 @@
         <v>1</v>
       </c>
       <c r="K254" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>756</v>
       </c>
@@ -19498,7 +19535,7 @@
         <v>1</v>
       </c>
       <c r="K255" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
@@ -19567,7 +19604,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>766</v>
       </c>
@@ -19600,7 +19637,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>769</v>
       </c>
@@ -19633,7 +19670,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>772</v>
       </c>
@@ -19666,7 +19703,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>775</v>
       </c>
@@ -19699,7 +19736,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>778</v>
       </c>
@@ -19732,7 +19769,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>781</v>
       </c>
@@ -19765,7 +19802,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>784</v>
       </c>
@@ -19798,7 +19835,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>787</v>
       </c>
@@ -19831,7 +19868,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>790</v>
       </c>
@@ -19864,7 +19901,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>793</v>
       </c>
@@ -19930,7 +19967,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>799</v>
       </c>
@@ -19963,7 +20000,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>802</v>
       </c>
@@ -19996,7 +20033,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>805</v>
       </c>
@@ -20029,7 +20066,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>808</v>
       </c>
@@ -20062,7 +20099,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>811</v>
       </c>
@@ -20095,7 +20132,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>814</v>
       </c>
@@ -20128,7 +20165,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>817</v>
       </c>
@@ -20161,7 +20198,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>820</v>
       </c>
@@ -20194,7 +20231,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>823</v>
       </c>
@@ -20227,7 +20264,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>826</v>
       </c>
@@ -20293,7 +20330,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>832</v>
       </c>
@@ -20326,7 +20363,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>835</v>
       </c>
@@ -20359,7 +20396,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>838</v>
       </c>
@@ -20392,7 +20429,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>841</v>
       </c>
@@ -20425,7 +20462,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>844</v>
       </c>
@@ -20458,7 +20495,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>847</v>
       </c>
@@ -20491,7 +20528,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>850</v>
       </c>
@@ -20524,7 +20561,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>853</v>
       </c>
@@ -20557,7 +20594,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>856</v>
       </c>
@@ -20590,7 +20627,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>859</v>
       </c>
@@ -20656,7 +20693,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>865</v>
       </c>
@@ -20689,7 +20726,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>868</v>
       </c>
@@ -20722,7 +20759,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>871</v>
       </c>
@@ -20755,7 +20792,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>874</v>
       </c>
@@ -20788,7 +20825,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>877</v>
       </c>
@@ -20821,7 +20858,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>880</v>
       </c>
@@ -20854,7 +20891,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>883</v>
       </c>
@@ -20887,7 +20924,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>886</v>
       </c>
@@ -20920,7 +20957,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>889</v>
       </c>
@@ -20953,7 +20990,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>892</v>
       </c>
@@ -21019,7 +21056,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>898</v>
       </c>
@@ -21052,7 +21089,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>901</v>
       </c>
@@ -21085,7 +21122,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>904</v>
       </c>
@@ -21118,7 +21155,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>907</v>
       </c>
@@ -21151,7 +21188,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>910</v>
       </c>
@@ -21184,7 +21221,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>913</v>
       </c>
@@ -21217,7 +21254,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>916</v>
       </c>
@@ -21250,7 +21287,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>919</v>
       </c>
@@ -21283,7 +21320,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>922</v>
       </c>
@@ -21316,7 +21353,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>925</v>
       </c>
@@ -21448,7 +21485,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>940</v>
       </c>
@@ -21514,7 +21551,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>946</v>
       </c>
@@ -21547,7 +21584,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>949</v>
       </c>
@@ -21580,7 +21617,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>952</v>
       </c>
@@ -21646,7 +21683,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>958</v>
       </c>
@@ -21679,7 +21716,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>961</v>
       </c>
@@ -21712,7 +21749,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>964</v>
       </c>
@@ -21745,7 +21782,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>967</v>
       </c>
@@ -21778,7 +21815,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>970</v>
       </c>
@@ -21811,7 +21848,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>973</v>
       </c>
@@ -21844,7 +21881,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>976</v>
       </c>
@@ -21877,7 +21914,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>979</v>
       </c>
@@ -21910,7 +21947,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>982</v>
       </c>
@@ -21943,7 +21980,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>985</v>
       </c>
@@ -21976,7 +22013,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>988</v>
       </c>
@@ -22009,7 +22046,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>991</v>
       </c>
@@ -22042,7 +22079,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>994</v>
       </c>
@@ -22075,7 +22112,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>998</v>
       </c>
@@ -22108,7 +22145,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1001</v>
       </c>
@@ -22141,7 +22178,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1004</v>
       </c>
@@ -22174,7 +22211,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1007</v>
       </c>
@@ -22207,7 +22244,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1010</v>
       </c>
@@ -22240,7 +22277,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1013</v>
       </c>
@@ -22273,7 +22310,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1016</v>
       </c>
@@ -22306,7 +22343,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1019</v>
       </c>
@@ -22339,7 +22376,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1022</v>
       </c>
@@ -22372,7 +22409,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1025</v>
       </c>
@@ -22405,7 +22442,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1029</v>
       </c>
@@ -22438,7 +22475,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1032</v>
       </c>
@@ -22471,7 +22508,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1035</v>
       </c>
@@ -22504,7 +22541,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1038</v>
       </c>
@@ -22537,7 +22574,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1041</v>
       </c>
@@ -22570,7 +22607,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1044</v>
       </c>
@@ -22603,7 +22640,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1047</v>
       </c>
@@ -22636,7 +22673,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1050</v>
       </c>
@@ -22669,7 +22706,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1053</v>
       </c>
@@ -22702,7 +22739,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1056</v>
       </c>
@@ -22735,7 +22772,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1059</v>
       </c>
@@ -22768,7 +22805,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1062</v>
       </c>
@@ -22801,7 +22838,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1065</v>
       </c>
@@ -22834,7 +22871,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1068</v>
       </c>
@@ -22867,7 +22904,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1071</v>
       </c>
@@ -22900,7 +22937,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1074</v>
       </c>
@@ -22933,7 +22970,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1077</v>
       </c>
@@ -22966,7 +23003,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1080</v>
       </c>
@@ -22999,7 +23036,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1083</v>
       </c>
@@ -23032,7 +23069,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1086</v>
       </c>
@@ -23065,7 +23102,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1089</v>
       </c>
@@ -23098,7 +23135,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1092</v>
       </c>
@@ -23131,7 +23168,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1095</v>
       </c>
@@ -23164,7 +23201,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1098</v>
       </c>
@@ -23197,7 +23234,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1101</v>
       </c>
@@ -23230,7 +23267,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1104</v>
       </c>
@@ -23263,7 +23300,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1107</v>
       </c>
@@ -23296,7 +23333,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1110</v>
       </c>
@@ -23329,7 +23366,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1113</v>
       </c>
@@ -23362,7 +23399,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1116</v>
       </c>
@@ -23395,7 +23432,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1119</v>
       </c>
@@ -23428,7 +23465,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1122</v>
       </c>
@@ -23461,7 +23498,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1125</v>
       </c>
@@ -23494,7 +23531,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1128</v>
       </c>
@@ -23527,7 +23564,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1131</v>
       </c>
@@ -23560,7 +23597,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1134</v>
       </c>
@@ -23593,7 +23630,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1137</v>
       </c>
@@ -23626,7 +23663,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1140</v>
       </c>
@@ -23659,7 +23696,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1143</v>
       </c>
@@ -23692,7 +23729,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1146</v>
       </c>
@@ -23725,7 +23762,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1149</v>
       </c>
@@ -23758,7 +23795,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1152</v>
       </c>
@@ -23791,7 +23828,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1155</v>
       </c>
@@ -23824,7 +23861,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1158</v>
       </c>
@@ -23857,7 +23894,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1161</v>
       </c>
@@ -23890,7 +23927,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1164</v>
       </c>
@@ -23923,7 +23960,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1167</v>
       </c>
@@ -23956,7 +23993,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1170</v>
       </c>
@@ -23989,7 +24026,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1173</v>
       </c>
@@ -24022,7 +24059,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1176</v>
       </c>
@@ -24055,7 +24092,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1179</v>
       </c>
@@ -24088,7 +24125,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1182</v>
       </c>
@@ -24121,7 +24158,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1185</v>
       </c>
@@ -24154,7 +24191,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1188</v>
       </c>
@@ -24187,7 +24224,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1191</v>
       </c>
@@ -24220,7 +24257,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1194</v>
       </c>
@@ -24253,7 +24290,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1197</v>
       </c>
@@ -24286,7 +24323,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1200</v>
       </c>
@@ -24352,7 +24389,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1208</v>
       </c>
@@ -24385,7 +24422,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1211</v>
       </c>
@@ -24418,7 +24455,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1214</v>
       </c>
@@ -24451,7 +24488,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1217</v>
       </c>
@@ -24913,7 +24950,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1260</v>
       </c>
@@ -25012,7 +25049,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1272</v>
       </c>
@@ -25111,7 +25148,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1282</v>
       </c>
@@ -25144,7 +25181,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1285</v>
       </c>
@@ -25177,7 +25214,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1289</v>
       </c>
@@ -25210,7 +25247,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1292</v>
       </c>
@@ -25309,7 +25346,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1302</v>
       </c>
@@ -25408,7 +25445,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1312</v>
       </c>
@@ -25507,7 +25544,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1322</v>
       </c>
@@ -25606,7 +25643,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1332</v>
       </c>
@@ -25705,7 +25742,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1342</v>
       </c>
@@ -25738,7 +25775,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1345</v>
       </c>
@@ -25771,7 +25808,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1349</v>
       </c>
@@ -25804,7 +25841,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1352</v>
       </c>
@@ -25837,7 +25874,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1355</v>
       </c>
@@ -25903,7 +25940,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1365</v>
       </c>
@@ -25936,7 +25973,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1368</v>
       </c>
@@ -25969,7 +26006,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1371</v>
       </c>
@@ -26002,7 +26039,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1375</v>
       </c>
@@ -26035,7 +26072,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1377</v>
       </c>
@@ -26068,7 +26105,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1380</v>
       </c>
@@ -26101,7 +26138,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1383</v>
       </c>
@@ -26134,7 +26171,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1386</v>
       </c>
@@ -26167,7 +26204,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1389</v>
       </c>
@@ -26200,7 +26237,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1392</v>
       </c>
@@ -26233,7 +26270,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1395</v>
       </c>
@@ -26266,7 +26303,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1398</v>
       </c>
@@ -26299,7 +26336,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1401</v>
       </c>
@@ -26332,7 +26369,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1404</v>
       </c>
@@ -26365,7 +26402,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1406</v>
       </c>
@@ -26398,7 +26435,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1409</v>
       </c>
@@ -26431,7 +26468,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1412</v>
       </c>
@@ -26464,7 +26501,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1415</v>
       </c>
@@ -26497,7 +26534,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1418</v>
       </c>
@@ -26530,7 +26567,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1421</v>
       </c>
@@ -26563,7 +26600,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1424</v>
       </c>
@@ -26596,7 +26633,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1427</v>
       </c>
@@ -26629,7 +26666,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1430</v>
       </c>
@@ -44020,7 +44057,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="999" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>3012</v>
       </c>
@@ -44119,7 +44156,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1002" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>3023</v>
       </c>
@@ -44218,7 +44255,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1005" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>3033</v>
       </c>
@@ -44251,7 +44288,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1006" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>3036</v>
       </c>
@@ -44284,7 +44321,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1007" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>3040</v>
       </c>
@@ -44317,7 +44354,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1008" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>3043</v>
       </c>
@@ -44350,7 +44387,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1009" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>3046</v>
       </c>
@@ -44383,7 +44420,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1010" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>3049</v>
       </c>
@@ -44416,7 +44453,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1011" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>3052</v>
       </c>
@@ -44449,7 +44486,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1012" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>3055</v>
       </c>
@@ -44482,7 +44519,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1013" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>3058</v>
       </c>
@@ -44515,7 +44552,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1014" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>3061</v>
       </c>
@@ -44548,7 +44585,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1015" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>3065</v>
       </c>
@@ -44581,7 +44618,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1016" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>3068</v>
       </c>
@@ -44614,7 +44651,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1017" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>3071</v>
       </c>
@@ -44647,7 +44684,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1018" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>3075</v>
       </c>
@@ -44680,7 +44717,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1019" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>3078</v>
       </c>
@@ -44713,7 +44750,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1020" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>3081</v>
       </c>
@@ -44746,7 +44783,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1021" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>3084</v>
       </c>
@@ -44779,7 +44816,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1022" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>3087</v>
       </c>
@@ -44812,7 +44849,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1023" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>3090</v>
       </c>
@@ -44845,7 +44882,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1024" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>3093</v>
       </c>
@@ -44878,7 +44915,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1025" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>3096</v>
       </c>
@@ -44911,7 +44948,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1026" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>3099</v>
       </c>
@@ -45010,7 +45047,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1029" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>3113</v>
       </c>
@@ -45043,7 +45080,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1030" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>3117</v>
       </c>
@@ -45076,7 +45113,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1031" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>3120</v>
       </c>
@@ -45109,7 +45146,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1032" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>3123</v>
       </c>
@@ -45142,7 +45179,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1033" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>3126</v>
       </c>
@@ -45175,7 +45212,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1034" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>3129</v>
       </c>
@@ -45208,7 +45245,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1035" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>3132</v>
       </c>
@@ -45274,7 +45311,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1037" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>3140</v>
       </c>
@@ -45307,7 +45344,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1038" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>3144</v>
       </c>
@@ -45340,7 +45377,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1039" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>3147</v>
       </c>
@@ -45373,7 +45410,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1040" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>3150</v>
       </c>
@@ -45406,7 +45443,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1041" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>3153</v>
       </c>
@@ -45439,7 +45476,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1042" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>3156</v>
       </c>
@@ -45472,7 +45509,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1043" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>3159</v>
       </c>
@@ -45505,7 +45542,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1044" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>3162</v>
       </c>
@@ -45538,7 +45575,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1045" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>3165</v>
       </c>
@@ -45571,7 +45608,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1046" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>3168</v>
       </c>
@@ -45604,7 +45641,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1047" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>3171</v>
       </c>
@@ -45736,7 +45773,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1051" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>3186</v>
       </c>
@@ -45769,7 +45806,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1052" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>3189</v>
       </c>
@@ -45802,7 +45839,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1053" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>3192</v>
       </c>
@@ -45835,7 +45872,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1054" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>3195</v>
       </c>
@@ -45868,7 +45905,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1055" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>3198</v>
       </c>
@@ -45901,7 +45938,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1056" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>3201</v>
       </c>
@@ -46033,7 +46070,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1060" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>3216</v>
       </c>
@@ -46066,7 +46103,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1061" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>3219</v>
       </c>
@@ -46099,7 +46136,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1062" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>3222</v>
       </c>
@@ -46231,7 +46268,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1066" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>3234</v>
       </c>
@@ -46264,7 +46301,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1067" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>3237</v>
       </c>
@@ -46462,7 +46499,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1073" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>3255</v>
       </c>
@@ -46594,7 +46631,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1077" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>3267</v>
       </c>
@@ -46627,7 +46664,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1078" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>3270</v>
       </c>
@@ -46693,7 +46730,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1080" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>3276</v>
       </c>
@@ -46726,7 +46763,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1081" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
         <v>3279</v>
       </c>
@@ -46759,7 +46796,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1082" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>3282</v>
       </c>
@@ -46825,7 +46862,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1084" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>3288</v>
       </c>
@@ -46858,7 +46895,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1085" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>3291</v>
       </c>
@@ -46924,7 +46961,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1087" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>3297</v>
       </c>
@@ -46957,7 +46994,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1088" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>3300</v>
       </c>
@@ -47122,7 +47159,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1093" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>3314</v>
       </c>
@@ -47155,7 +47192,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1094" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>3317</v>
       </c>
@@ -47353,7 +47390,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>3335</v>
       </c>
@@ -47485,7 +47522,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>3347</v>
       </c>
@@ -47518,7 +47555,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
         <v>3350</v>
       </c>
@@ -47584,7 +47621,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>3356</v>
       </c>
@@ -47617,7 +47654,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>3359</v>
       </c>
@@ -47650,7 +47687,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
         <v>3362</v>
       </c>
@@ -47716,7 +47753,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>3368</v>
       </c>
@@ -47749,7 +47786,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>3371</v>
       </c>
@@ -47815,7 +47852,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>3377</v>
       </c>
@@ -47848,7 +47885,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>3380</v>
       </c>
@@ -47948,12 +47985,4466 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1117"/>
+  <autoFilter ref="A1:K1117">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="A2:K1117">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$I2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <f>IF(E3=E2,I2,IF(I2=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="0">IF(E4=E3,I3,IF(I3=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>356</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>359</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B13" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" t="s">
+        <v>533</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>534</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>535</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>542</v>
+      </c>
+      <c r="B14" t="s">
+        <v>543</v>
+      </c>
+      <c r="C14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>545</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>546</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>603</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>604</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>605</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>606</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" t="s">
+        <v>604</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>605</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>608</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>609</v>
+      </c>
+      <c r="B17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" t="s">
+        <v>604</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>605</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>610</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>611</v>
+      </c>
+      <c r="B18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>605</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>612</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" t="s">
+        <v>604</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>605</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>614</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>615</v>
+      </c>
+      <c r="B20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C20" t="s">
+        <v>604</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>605</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>616</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>617</v>
+      </c>
+      <c r="B21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C21" t="s">
+        <v>604</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>605</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>618</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>619</v>
+      </c>
+      <c r="B22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" t="s">
+        <v>604</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>605</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>620</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>621</v>
+      </c>
+      <c r="B23" t="s">
+        <v>423</v>
+      </c>
+      <c r="C23" t="s">
+        <v>604</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>605</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>622</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>623</v>
+      </c>
+      <c r="B24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C24" t="s">
+        <v>604</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>605</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>624</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K24" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>625</v>
+      </c>
+      <c r="B25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" t="s">
+        <v>604</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>605</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>626</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>627</v>
+      </c>
+      <c r="B26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" t="s">
+        <v>604</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>605</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>628</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K26" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>629</v>
+      </c>
+      <c r="B27" t="s">
+        <v>435</v>
+      </c>
+      <c r="C27" t="s">
+        <v>604</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>605</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>630</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>631</v>
+      </c>
+      <c r="B28" t="s">
+        <v>438</v>
+      </c>
+      <c r="C28" t="s">
+        <v>604</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>605</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>632</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K28" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>633</v>
+      </c>
+      <c r="B29" t="s">
+        <v>441</v>
+      </c>
+      <c r="C29" t="s">
+        <v>604</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>605</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>634</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K29" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>635</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>636</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>637</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>638</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K30" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>639</v>
+      </c>
+      <c r="B31" t="s">
+        <v>640</v>
+      </c>
+      <c r="C31" t="s">
+        <v>636</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>637</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>641</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K31" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>675</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>676</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>677</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>678</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K32" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>682</v>
+      </c>
+      <c r="B33" t="s">
+        <v>683</v>
+      </c>
+      <c r="C33" t="s">
+        <v>676</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>677</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>684</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K33" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>694</v>
+      </c>
+      <c r="B34" t="s">
+        <v>695</v>
+      </c>
+      <c r="C34" t="s">
+        <v>676</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>677</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>696</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K34" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>759</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>760</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>761</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>762</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K35" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>763</v>
+      </c>
+      <c r="B36" t="s">
+        <v>764</v>
+      </c>
+      <c r="C36" t="s">
+        <v>760</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>761</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>765</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K36" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>796</v>
+      </c>
+      <c r="B37" t="s">
+        <v>797</v>
+      </c>
+      <c r="C37" t="s">
+        <v>760</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>761</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>798</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K37" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>829</v>
+      </c>
+      <c r="B38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C38" t="s">
+        <v>760</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>761</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>831</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K38" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>862</v>
+      </c>
+      <c r="B39" t="s">
+        <v>863</v>
+      </c>
+      <c r="C39" t="s">
+        <v>760</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>761</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>864</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K39" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>895</v>
+      </c>
+      <c r="B40" t="s">
+        <v>896</v>
+      </c>
+      <c r="C40" t="s">
+        <v>760</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>761</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>897</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K40" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>928</v>
+      </c>
+      <c r="B41" t="s">
+        <v>929</v>
+      </c>
+      <c r="C41" t="s">
+        <v>930</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>931</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>932</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K41" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>933</v>
+      </c>
+      <c r="B42" t="s">
+        <v>934</v>
+      </c>
+      <c r="C42" t="s">
+        <v>930</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>931</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>935</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K42" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>936</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>937</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>938</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>939</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K43" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>943</v>
+      </c>
+      <c r="B44" t="s">
+        <v>944</v>
+      </c>
+      <c r="C44" t="s">
+        <v>937</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>938</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>945</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K44" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>955</v>
+      </c>
+      <c r="B45" t="s">
+        <v>956</v>
+      </c>
+      <c r="C45" t="s">
+        <v>937</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>938</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>957</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K45" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K46" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K47" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K48" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K49" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K51" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K52" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K53" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K54" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K55" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K56" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K57" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K58" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K60" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K61" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K62" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K63" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K64" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K65" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K66" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K67" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I118" si="1">IF(E68=E67,I67,IF(I67=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K68" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K69" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K70" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K71" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K72" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K73" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K74" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3018</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3019</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K75" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3018</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>3022</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K76" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3027</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3028</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>3029</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K77" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3027</v>
+      </c>
+      <c r="D78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3028</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>3032</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K78" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3105</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>3106</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K79" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3111</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>3112</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K80" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3138</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>3139</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K81" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3176</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3177</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>3178</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K82" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3181</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>3182</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K83" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3181</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>3185</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K84" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3207</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>3208</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K85" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>3212</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K86" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>3215</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K87" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>3228</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K88" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3230</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K89" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>3233</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K90" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3242</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K91" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>3245</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K92" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>3248</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K93" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>3251</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K94" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>3254</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K95" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>3260</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K96" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K97" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>3266</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K98" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K99" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3287</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K100" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>3296</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K101" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>3305</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K102" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>3308</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K103" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B104" t="s">
+        <v>303</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>3310</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K104" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3313</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K105" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>3322</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K106" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>3325</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K107" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>3328</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K108" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3331</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K109" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D110" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>3334</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K110" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>3340</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K111" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D112" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>3343</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K112" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D113" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>3346</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K113" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D114" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>3355</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K114" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>3367</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K115" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D116" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K116" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D117" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>3385</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K117" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D118" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>3388</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K118" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K118"/>
+  <conditionalFormatting sqref="A2:K118">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I2=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A31">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$I1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Census_data_variables.xlsx
+++ b/data/Census_data_variables.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genevievelyons/DataFiles and Classwork/Statistical Learning - BST 263 /COVID-SES/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{569C7B87-E518-3F41-8D35-3BB0801891D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B5B94EF5-D7B4-B643-B1E2-EF99091131EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1440" windowWidth="27240" windowHeight="15220" activeTab="1"/>
+    <workbookView xWindow="680" yWindow="1440" windowWidth="27240" windowHeight="15220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Census_data_variables" sheetId="1" r:id="rId1"/>
     <sheet name="Census_data_variables_2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Helper for Gen's code" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Census_data_variables!$A$1:$K$1117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Census_data_variables_2!$A$1:$K$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Helper for Gen''s code'!$A$1:$I$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10034" uniqueCount="3398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10634" uniqueCount="3441">
   <si>
     <t>name</t>
   </si>
@@ -10230,6 +10231,135 @@
   </si>
   <si>
     <t>weighted avg</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Gen/Gabby</t>
+  </si>
+  <si>
+    <t>First Code (pull the variables)</t>
+  </si>
+  <si>
+    <t>Second code (calculate percentages)</t>
+  </si>
+  <si>
+    <t>GL Named variable</t>
+  </si>
+  <si>
+    <t>perc_us_citizen</t>
+  </si>
+  <si>
+    <t>fmt</t>
+  </si>
+  <si>
+    <t>perc_transport_to_work_car</t>
+  </si>
+  <si>
+    <t>perc_transport_to_work_public</t>
+  </si>
+  <si>
+    <t>perc_transport_to_work_bike</t>
+  </si>
+  <si>
+    <t>perc_transport_to_work_walk</t>
+  </si>
+  <si>
+    <t>perc_transport_to_work_taxi</t>
+  </si>
+  <si>
+    <t>perc_transport_to_work_workathome</t>
+  </si>
+  <si>
+    <t>perc_work_in_state_of_residence</t>
+  </si>
+  <si>
+    <t>travel_time_to_work_minutes</t>
+  </si>
+  <si>
+    <t>number_vehicles_count</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_5to529</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_530to559</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_6to629</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_630to659</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_7to729</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_730to759</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_12ato459</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_8to829</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_830to859</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_9to959</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_10to1059</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_11to1159</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_12pto359</t>
+  </si>
+  <si>
+    <t>perc_leave_for_work_4pto1159</t>
+  </si>
+  <si>
+    <t>perc_with_Supplemental_Security_Income_cash_public_assistance_income_or_Food_Stamps_SNAP</t>
+  </si>
+  <si>
+    <t>perc_married_family</t>
+  </si>
+  <si>
+    <t>perc_nonfamily</t>
+  </si>
+  <si>
+    <t>perc_never_married</t>
+  </si>
+  <si>
+    <t>perc_now_married</t>
+  </si>
+  <si>
+    <t>perc_separated</t>
+  </si>
+  <si>
+    <t>perc_widowed</t>
+  </si>
+  <si>
+    <t>perc_divorced</t>
+  </si>
+  <si>
+    <t>med_age_marriage</t>
+  </si>
+  <si>
+    <t>med_age_marriage = (B12007_001E+B12007_002E)/2</t>
+  </si>
+  <si>
+    <t>perc_hadbaby_pastyear_married</t>
+  </si>
+  <si>
+    <t>perc_hadbaby_pastyear_unmarried</t>
+  </si>
+  <si>
+    <t>income_deficit_pastyear</t>
   </si>
 </sst>
 </file>
@@ -11103,12 +11233,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K1117"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11157,7 +11286,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -11189,7 +11318,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -11222,7 +11351,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -11255,7 +11384,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -11288,7 +11417,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11321,7 +11450,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -11354,7 +11483,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -11387,7 +11516,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -11420,7 +11549,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -11453,7 +11582,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -11486,7 +11615,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -11519,7 +11648,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -11552,7 +11681,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -11585,7 +11714,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -11684,7 +11813,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -11717,7 +11846,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -11750,7 +11879,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -11783,7 +11912,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -11816,7 +11945,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -11849,7 +11978,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -11882,7 +12011,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -11915,7 +12044,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -11948,7 +12077,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -11981,7 +12110,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -12014,7 +12143,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -12047,7 +12176,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -12080,7 +12209,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -12113,7 +12242,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -12146,7 +12275,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -12179,7 +12308,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -12212,7 +12341,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -12245,7 +12374,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -12278,7 +12407,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -12311,7 +12440,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -12344,7 +12473,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -12377,7 +12506,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -12410,7 +12539,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -12443,7 +12572,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -12476,7 +12605,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>139</v>
       </c>
@@ -12509,7 +12638,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -12542,7 +12671,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>145</v>
       </c>
@@ -12575,7 +12704,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -12608,7 +12737,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>151</v>
       </c>
@@ -12641,7 +12770,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>154</v>
       </c>
@@ -12674,7 +12803,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -12707,7 +12836,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -12740,7 +12869,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>163</v>
       </c>
@@ -12773,7 +12902,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>166</v>
       </c>
@@ -12806,7 +12935,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>169</v>
       </c>
@@ -12839,7 +12968,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -12872,7 +13001,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>175</v>
       </c>
@@ -12905,7 +13034,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -12938,7 +13067,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -12971,7 +13100,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>184</v>
       </c>
@@ -13004,7 +13133,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -13037,7 +13166,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>190</v>
       </c>
@@ -13070,7 +13199,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -13103,7 +13232,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>196</v>
       </c>
@@ -13202,7 +13331,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>206</v>
       </c>
@@ -13235,7 +13364,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>209</v>
       </c>
@@ -13268,7 +13397,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>212</v>
       </c>
@@ -13301,7 +13430,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -13334,7 +13463,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>218</v>
       </c>
@@ -13400,7 +13529,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>224</v>
       </c>
@@ -13433,7 +13562,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>227</v>
       </c>
@@ -13466,7 +13595,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>230</v>
       </c>
@@ -13499,7 +13628,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -13532,7 +13661,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>236</v>
       </c>
@@ -13697,7 +13826,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>251</v>
       </c>
@@ -13730,7 +13859,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>254</v>
       </c>
@@ -13763,7 +13892,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>257</v>
       </c>
@@ -13796,7 +13925,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>260</v>
       </c>
@@ -13829,7 +13958,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>263</v>
       </c>
@@ -13862,7 +13991,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>266</v>
       </c>
@@ -13895,7 +14024,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>269</v>
       </c>
@@ -13928,7 +14057,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>272</v>
       </c>
@@ -13961,7 +14090,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>275</v>
       </c>
@@ -13994,7 +14123,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>278</v>
       </c>
@@ -14027,7 +14156,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>281</v>
       </c>
@@ -14060,7 +14189,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>284</v>
       </c>
@@ -14093,7 +14222,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>287</v>
       </c>
@@ -14126,7 +14255,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>290</v>
       </c>
@@ -14159,7 +14288,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>293</v>
       </c>
@@ -14192,7 +14321,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>296</v>
       </c>
@@ -14225,7 +14354,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>299</v>
       </c>
@@ -14258,7 +14387,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>302</v>
       </c>
@@ -14291,7 +14420,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>305</v>
       </c>
@@ -14324,7 +14453,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>308</v>
       </c>
@@ -14357,7 +14486,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>311</v>
       </c>
@@ -14390,7 +14519,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>314</v>
       </c>
@@ -14423,7 +14552,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>317</v>
       </c>
@@ -14456,7 +14585,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>320</v>
       </c>
@@ -14489,7 +14618,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>323</v>
       </c>
@@ -14522,7 +14651,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>326</v>
       </c>
@@ -14555,7 +14684,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>329</v>
       </c>
@@ -14588,7 +14717,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>332</v>
       </c>
@@ -14621,7 +14750,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>335</v>
       </c>
@@ -14654,7 +14783,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>338</v>
       </c>
@@ -14687,7 +14816,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>341</v>
       </c>
@@ -14720,7 +14849,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>344</v>
       </c>
@@ -14753,7 +14882,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>347</v>
       </c>
@@ -14786,7 +14915,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>350</v>
       </c>
@@ -14885,7 +15014,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>360</v>
       </c>
@@ -14918,7 +15047,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>363</v>
       </c>
@@ -14951,7 +15080,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>366</v>
       </c>
@@ -14984,7 +15113,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>369</v>
       </c>
@@ -15017,7 +15146,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>371</v>
       </c>
@@ -15050,7 +15179,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>374</v>
       </c>
@@ -15083,7 +15212,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>377</v>
       </c>
@@ -15116,7 +15245,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>380</v>
       </c>
@@ -15149,7 +15278,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>383</v>
       </c>
@@ -15182,7 +15311,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>385</v>
       </c>
@@ -15215,7 +15344,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>388</v>
       </c>
@@ -15248,7 +15377,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>391</v>
       </c>
@@ -15281,7 +15410,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>394</v>
       </c>
@@ -15314,7 +15443,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>397</v>
       </c>
@@ -15347,7 +15476,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>401</v>
       </c>
@@ -15380,7 +15509,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>404</v>
       </c>
@@ -15413,7 +15542,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>407</v>
       </c>
@@ -15446,7 +15575,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>410</v>
       </c>
@@ -15479,7 +15608,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>413</v>
       </c>
@@ -15512,7 +15641,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>416</v>
       </c>
@@ -15545,7 +15674,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>419</v>
       </c>
@@ -15578,7 +15707,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>422</v>
       </c>
@@ -15611,7 +15740,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>425</v>
       </c>
@@ -15644,7 +15773,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>428</v>
       </c>
@@ -15677,7 +15806,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>431</v>
       </c>
@@ -15710,7 +15839,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>434</v>
       </c>
@@ -15743,7 +15872,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>437</v>
       </c>
@@ -15776,7 +15905,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>440</v>
       </c>
@@ -15809,7 +15938,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>443</v>
       </c>
@@ -15842,7 +15971,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>445</v>
       </c>
@@ -15875,7 +16004,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>448</v>
       </c>
@@ -15908,7 +16037,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>451</v>
       </c>
@@ -15941,7 +16070,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>454</v>
       </c>
@@ -15974,7 +16103,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>457</v>
       </c>
@@ -16007,7 +16136,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>460</v>
       </c>
@@ -16040,7 +16169,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>463</v>
       </c>
@@ -16073,7 +16202,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>466</v>
       </c>
@@ -16106,7 +16235,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>469</v>
       </c>
@@ -16139,7 +16268,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>472</v>
       </c>
@@ -16172,7 +16301,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>475</v>
       </c>
@@ -16205,7 +16334,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>478</v>
       </c>
@@ -16238,7 +16367,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>481</v>
       </c>
@@ -16271,7 +16400,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>484</v>
       </c>
@@ -16304,7 +16433,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>487</v>
       </c>
@@ -16337,7 +16466,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>489</v>
       </c>
@@ -16370,7 +16499,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>492</v>
       </c>
@@ -16403,7 +16532,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>495</v>
       </c>
@@ -16436,7 +16565,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>498</v>
       </c>
@@ -16469,7 +16598,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>501</v>
       </c>
@@ -16502,7 +16631,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>504</v>
       </c>
@@ -16535,7 +16664,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>507</v>
       </c>
@@ -16568,7 +16697,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>510</v>
       </c>
@@ -16601,7 +16730,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>513</v>
       </c>
@@ -16634,7 +16763,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>516</v>
       </c>
@@ -16667,7 +16796,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>519</v>
       </c>
@@ -16700,7 +16829,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>522</v>
       </c>
@@ -16733,7 +16862,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>525</v>
       </c>
@@ -16766,7 +16895,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>528</v>
       </c>
@@ -16832,7 +16961,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>536</v>
       </c>
@@ -16865,7 +16994,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>539</v>
       </c>
@@ -16931,7 +17060,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>547</v>
       </c>
@@ -16964,7 +17093,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>550</v>
       </c>
@@ -16997,7 +17126,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>553</v>
       </c>
@@ -17030,7 +17159,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>557</v>
       </c>
@@ -17063,7 +17192,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>559</v>
       </c>
@@ -17096,7 +17225,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>561</v>
       </c>
@@ -17129,7 +17258,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>563</v>
       </c>
@@ -17162,7 +17291,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>565</v>
       </c>
@@ -17195,7 +17324,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>567</v>
       </c>
@@ -17228,7 +17357,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>570</v>
       </c>
@@ -17261,7 +17390,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>573</v>
       </c>
@@ -17294,7 +17423,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>576</v>
       </c>
@@ -17327,7 +17456,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>578</v>
       </c>
@@ -17360,7 +17489,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>580</v>
       </c>
@@ -17393,7 +17522,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>582</v>
       </c>
@@ -17426,7 +17555,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>584</v>
       </c>
@@ -17459,7 +17588,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>586</v>
       </c>
@@ -17492,7 +17621,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>588</v>
       </c>
@@ -17525,7 +17654,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>591</v>
       </c>
@@ -17558,7 +17687,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>594</v>
       </c>
@@ -17591,7 +17720,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>596</v>
       </c>
@@ -17624,7 +17753,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>598</v>
       </c>
@@ -17657,7 +17786,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>601</v>
       </c>
@@ -18251,7 +18380,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>642</v>
       </c>
@@ -18284,7 +18413,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>645</v>
       </c>
@@ -18317,7 +18446,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>648</v>
       </c>
@@ -18350,7 +18479,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>651</v>
       </c>
@@ -18383,7 +18512,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>654</v>
       </c>
@@ -18416,7 +18545,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>657</v>
       </c>
@@ -18449,7 +18578,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>660</v>
       </c>
@@ -18482,7 +18611,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>663</v>
       </c>
@@ -18515,7 +18644,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>666</v>
       </c>
@@ -18548,7 +18677,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>669</v>
       </c>
@@ -18581,7 +18710,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>672</v>
       </c>
@@ -18647,7 +18776,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>679</v>
       </c>
@@ -18713,7 +18842,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>685</v>
       </c>
@@ -18746,7 +18875,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>688</v>
       </c>
@@ -18779,7 +18908,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>691</v>
       </c>
@@ -18845,7 +18974,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>697</v>
       </c>
@@ -18878,7 +19007,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>700</v>
       </c>
@@ -18911,7 +19040,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>703</v>
       </c>
@@ -18944,7 +19073,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>707</v>
       </c>
@@ -18977,7 +19106,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>709</v>
       </c>
@@ -19010,7 +19139,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>712</v>
       </c>
@@ -19043,7 +19172,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>715</v>
       </c>
@@ -19076,7 +19205,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>718</v>
       </c>
@@ -19109,7 +19238,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>721</v>
       </c>
@@ -19142,7 +19271,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>724</v>
       </c>
@@ -19175,7 +19304,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>727</v>
       </c>
@@ -19208,7 +19337,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>730</v>
       </c>
@@ -19241,7 +19370,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>733</v>
       </c>
@@ -19274,7 +19403,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>735</v>
       </c>
@@ -19307,7 +19436,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>738</v>
       </c>
@@ -19340,7 +19469,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>741</v>
       </c>
@@ -19373,7 +19502,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>744</v>
       </c>
@@ -19406,7 +19535,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>747</v>
       </c>
@@ -19439,7 +19568,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>750</v>
       </c>
@@ -19472,7 +19601,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>753</v>
       </c>
@@ -19505,7 +19634,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>756</v>
       </c>
@@ -19604,7 +19733,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>766</v>
       </c>
@@ -19637,7 +19766,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>769</v>
       </c>
@@ -19670,7 +19799,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>772</v>
       </c>
@@ -19703,7 +19832,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>775</v>
       </c>
@@ -19736,7 +19865,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>778</v>
       </c>
@@ -19769,7 +19898,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>781</v>
       </c>
@@ -19802,7 +19931,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>784</v>
       </c>
@@ -19835,7 +19964,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>787</v>
       </c>
@@ -19868,7 +19997,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>790</v>
       </c>
@@ -19901,7 +20030,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>793</v>
       </c>
@@ -19967,7 +20096,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>799</v>
       </c>
@@ -20000,7 +20129,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>802</v>
       </c>
@@ -20033,7 +20162,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>805</v>
       </c>
@@ -20066,7 +20195,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>808</v>
       </c>
@@ -20099,7 +20228,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>811</v>
       </c>
@@ -20132,7 +20261,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>814</v>
       </c>
@@ -20165,7 +20294,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>817</v>
       </c>
@@ -20198,7 +20327,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>820</v>
       </c>
@@ -20231,7 +20360,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>823</v>
       </c>
@@ -20264,7 +20393,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>826</v>
       </c>
@@ -20330,7 +20459,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>832</v>
       </c>
@@ -20363,7 +20492,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>835</v>
       </c>
@@ -20396,7 +20525,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>838</v>
       </c>
@@ -20429,7 +20558,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>841</v>
       </c>
@@ -20462,7 +20591,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>844</v>
       </c>
@@ -20495,7 +20624,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>847</v>
       </c>
@@ -20528,7 +20657,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>850</v>
       </c>
@@ -20561,7 +20690,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>853</v>
       </c>
@@ -20594,7 +20723,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>856</v>
       </c>
@@ -20627,7 +20756,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>859</v>
       </c>
@@ -20693,7 +20822,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>865</v>
       </c>
@@ -20726,7 +20855,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>868</v>
       </c>
@@ -20759,7 +20888,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>871</v>
       </c>
@@ -20792,7 +20921,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>874</v>
       </c>
@@ -20825,7 +20954,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>877</v>
       </c>
@@ -20858,7 +20987,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>880</v>
       </c>
@@ -20891,7 +21020,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>883</v>
       </c>
@@ -20924,7 +21053,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>886</v>
       </c>
@@ -20957,7 +21086,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>889</v>
       </c>
@@ -20990,7 +21119,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>892</v>
       </c>
@@ -21056,7 +21185,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>898</v>
       </c>
@@ -21089,7 +21218,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>901</v>
       </c>
@@ -21122,7 +21251,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>904</v>
       </c>
@@ -21155,7 +21284,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>907</v>
       </c>
@@ -21188,7 +21317,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>910</v>
       </c>
@@ -21221,7 +21350,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>913</v>
       </c>
@@ -21254,7 +21383,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>916</v>
       </c>
@@ -21287,7 +21416,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>919</v>
       </c>
@@ -21320,7 +21449,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>922</v>
       </c>
@@ -21353,7 +21482,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>925</v>
       </c>
@@ -21485,7 +21614,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>940</v>
       </c>
@@ -21551,7 +21680,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>946</v>
       </c>
@@ -21584,7 +21713,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>949</v>
       </c>
@@ -21617,7 +21746,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>952</v>
       </c>
@@ -21683,7 +21812,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>958</v>
       </c>
@@ -21716,7 +21845,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>961</v>
       </c>
@@ -21749,7 +21878,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>964</v>
       </c>
@@ -21782,7 +21911,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>967</v>
       </c>
@@ -21815,7 +21944,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>970</v>
       </c>
@@ -21848,7 +21977,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>973</v>
       </c>
@@ -21881,7 +22010,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>976</v>
       </c>
@@ -21914,7 +22043,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>979</v>
       </c>
@@ -21947,7 +22076,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>982</v>
       </c>
@@ -21980,7 +22109,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>985</v>
       </c>
@@ -22013,7 +22142,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>988</v>
       </c>
@@ -22046,7 +22175,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>991</v>
       </c>
@@ -22079,7 +22208,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>994</v>
       </c>
@@ -22112,7 +22241,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>998</v>
       </c>
@@ -22145,7 +22274,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1001</v>
       </c>
@@ -22178,7 +22307,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1004</v>
       </c>
@@ -22211,7 +22340,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1007</v>
       </c>
@@ -22244,7 +22373,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1010</v>
       </c>
@@ -22277,7 +22406,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1013</v>
       </c>
@@ -22310,7 +22439,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1016</v>
       </c>
@@ -22343,7 +22472,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1019</v>
       </c>
@@ -22376,7 +22505,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1022</v>
       </c>
@@ -22409,7 +22538,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1025</v>
       </c>
@@ -22442,7 +22571,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1029</v>
       </c>
@@ -22475,7 +22604,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1032</v>
       </c>
@@ -22508,7 +22637,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1035</v>
       </c>
@@ -22541,7 +22670,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1038</v>
       </c>
@@ -22574,7 +22703,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1041</v>
       </c>
@@ -22607,7 +22736,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1044</v>
       </c>
@@ -22640,7 +22769,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1047</v>
       </c>
@@ -22673,7 +22802,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1050</v>
       </c>
@@ -22706,7 +22835,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1053</v>
       </c>
@@ -22739,7 +22868,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1056</v>
       </c>
@@ -22772,7 +22901,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1059</v>
       </c>
@@ -22805,7 +22934,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1062</v>
       </c>
@@ -22838,7 +22967,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1065</v>
       </c>
@@ -22871,7 +23000,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1068</v>
       </c>
@@ -22904,7 +23033,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1071</v>
       </c>
@@ -22937,7 +23066,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1074</v>
       </c>
@@ -22970,7 +23099,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1077</v>
       </c>
@@ -23003,7 +23132,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1080</v>
       </c>
@@ -23036,7 +23165,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1083</v>
       </c>
@@ -23069,7 +23198,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1086</v>
       </c>
@@ -23102,7 +23231,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1089</v>
       </c>
@@ -23135,7 +23264,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1092</v>
       </c>
@@ -23168,7 +23297,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1095</v>
       </c>
@@ -23201,7 +23330,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1098</v>
       </c>
@@ -23234,7 +23363,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1101</v>
       </c>
@@ -23267,7 +23396,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1104</v>
       </c>
@@ -23300,7 +23429,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1107</v>
       </c>
@@ -23333,7 +23462,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1110</v>
       </c>
@@ -23366,7 +23495,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1113</v>
       </c>
@@ -23399,7 +23528,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1116</v>
       </c>
@@ -23432,7 +23561,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1119</v>
       </c>
@@ -23465,7 +23594,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1122</v>
       </c>
@@ -23498,7 +23627,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1125</v>
       </c>
@@ -23531,7 +23660,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1128</v>
       </c>
@@ -23564,7 +23693,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1131</v>
       </c>
@@ -23597,7 +23726,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1134</v>
       </c>
@@ -23630,7 +23759,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1137</v>
       </c>
@@ -23663,7 +23792,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1140</v>
       </c>
@@ -23696,7 +23825,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1143</v>
       </c>
@@ -23729,7 +23858,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1146</v>
       </c>
@@ -23762,7 +23891,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1149</v>
       </c>
@@ -23795,7 +23924,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1152</v>
       </c>
@@ -23828,7 +23957,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1155</v>
       </c>
@@ -23861,7 +23990,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1158</v>
       </c>
@@ -23894,7 +24023,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1161</v>
       </c>
@@ -23927,7 +24056,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1164</v>
       </c>
@@ -23960,7 +24089,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1167</v>
       </c>
@@ -23993,7 +24122,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1170</v>
       </c>
@@ -24026,7 +24155,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1173</v>
       </c>
@@ -24059,7 +24188,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1176</v>
       </c>
@@ -24092,7 +24221,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1179</v>
       </c>
@@ -24125,7 +24254,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1182</v>
       </c>
@@ -24158,7 +24287,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1185</v>
       </c>
@@ -24191,7 +24320,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1188</v>
       </c>
@@ -24224,7 +24353,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1191</v>
       </c>
@@ -24257,7 +24386,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1194</v>
       </c>
@@ -24290,7 +24419,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1197</v>
       </c>
@@ -24323,7 +24452,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1200</v>
       </c>
@@ -24389,7 +24518,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1208</v>
       </c>
@@ -24422,7 +24551,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1211</v>
       </c>
@@ -24455,7 +24584,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1214</v>
       </c>
@@ -24488,7 +24617,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1217</v>
       </c>
@@ -24950,7 +25079,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1260</v>
       </c>
@@ -25049,7 +25178,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1272</v>
       </c>
@@ -25148,7 +25277,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1282</v>
       </c>
@@ -25181,7 +25310,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1285</v>
       </c>
@@ -25214,7 +25343,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1289</v>
       </c>
@@ -25247,7 +25376,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1292</v>
       </c>
@@ -25346,7 +25475,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1302</v>
       </c>
@@ -25445,7 +25574,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1312</v>
       </c>
@@ -25544,7 +25673,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1322</v>
       </c>
@@ -25643,7 +25772,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1332</v>
       </c>
@@ -25742,7 +25871,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1342</v>
       </c>
@@ -25775,7 +25904,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1345</v>
       </c>
@@ -25808,7 +25937,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1349</v>
       </c>
@@ -25841,7 +25970,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1352</v>
       </c>
@@ -25874,7 +26003,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1355</v>
       </c>
@@ -25940,7 +26069,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1365</v>
       </c>
@@ -25973,7 +26102,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1368</v>
       </c>
@@ -26006,7 +26135,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1371</v>
       </c>
@@ -26039,7 +26168,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1375</v>
       </c>
@@ -26072,7 +26201,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1377</v>
       </c>
@@ -26105,7 +26234,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1380</v>
       </c>
@@ -26138,7 +26267,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1383</v>
       </c>
@@ -26171,7 +26300,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1386</v>
       </c>
@@ -26204,7 +26333,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1389</v>
       </c>
@@ -26237,7 +26366,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1392</v>
       </c>
@@ -26270,7 +26399,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1395</v>
       </c>
@@ -26303,7 +26432,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1398</v>
       </c>
@@ -26336,7 +26465,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1401</v>
       </c>
@@ -26369,7 +26498,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1404</v>
       </c>
@@ -26402,7 +26531,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1406</v>
       </c>
@@ -26435,7 +26564,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1409</v>
       </c>
@@ -26468,7 +26597,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1412</v>
       </c>
@@ -26501,7 +26630,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1415</v>
       </c>
@@ -26534,7 +26663,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1418</v>
       </c>
@@ -26567,7 +26696,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1421</v>
       </c>
@@ -26600,7 +26729,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1424</v>
       </c>
@@ -26633,7 +26762,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1427</v>
       </c>
@@ -26666,7 +26795,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1430</v>
       </c>
@@ -44057,7 +44186,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="999" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>3012</v>
       </c>
@@ -44156,7 +44285,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1002" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>3023</v>
       </c>
@@ -44255,7 +44384,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1005" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>3033</v>
       </c>
@@ -44288,7 +44417,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1006" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>3036</v>
       </c>
@@ -44321,7 +44450,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1007" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>3040</v>
       </c>
@@ -44354,7 +44483,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1008" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>3043</v>
       </c>
@@ -44387,7 +44516,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1009" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>3046</v>
       </c>
@@ -44420,7 +44549,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1010" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>3049</v>
       </c>
@@ -44453,7 +44582,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1011" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>3052</v>
       </c>
@@ -44486,7 +44615,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1012" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>3055</v>
       </c>
@@ -44519,7 +44648,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1013" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>3058</v>
       </c>
@@ -44552,7 +44681,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1014" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>3061</v>
       </c>
@@ -44585,7 +44714,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1015" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>3065</v>
       </c>
@@ -44618,7 +44747,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1016" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>3068</v>
       </c>
@@ -44651,7 +44780,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1017" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>3071</v>
       </c>
@@ -44684,7 +44813,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1018" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>3075</v>
       </c>
@@ -44717,7 +44846,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1019" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>3078</v>
       </c>
@@ -44750,7 +44879,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1020" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>3081</v>
       </c>
@@ -44783,7 +44912,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1021" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>3084</v>
       </c>
@@ -44816,7 +44945,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1022" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>3087</v>
       </c>
@@ -44849,7 +44978,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1023" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>3090</v>
       </c>
@@ -44882,7 +45011,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1024" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>3093</v>
       </c>
@@ -44915,7 +45044,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1025" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>3096</v>
       </c>
@@ -44948,7 +45077,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1026" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>3099</v>
       </c>
@@ -45047,7 +45176,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1029" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>3113</v>
       </c>
@@ -45080,7 +45209,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1030" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>3117</v>
       </c>
@@ -45113,7 +45242,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1031" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>3120</v>
       </c>
@@ -45146,7 +45275,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1032" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>3123</v>
       </c>
@@ -45179,7 +45308,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1033" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>3126</v>
       </c>
@@ -45212,7 +45341,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1034" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>3129</v>
       </c>
@@ -45245,7 +45374,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1035" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>3132</v>
       </c>
@@ -45311,7 +45440,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1037" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>3140</v>
       </c>
@@ -45344,7 +45473,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1038" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>3144</v>
       </c>
@@ -45377,7 +45506,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1039" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>3147</v>
       </c>
@@ -45410,7 +45539,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1040" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>3150</v>
       </c>
@@ -45443,7 +45572,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1041" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>3153</v>
       </c>
@@ -45476,7 +45605,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1042" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>3156</v>
       </c>
@@ -45509,7 +45638,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1043" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>3159</v>
       </c>
@@ -45542,7 +45671,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1044" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>3162</v>
       </c>
@@ -45575,7 +45704,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1045" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>3165</v>
       </c>
@@ -45608,7 +45737,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1046" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>3168</v>
       </c>
@@ -45641,7 +45770,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1047" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>3171</v>
       </c>
@@ -45773,7 +45902,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1051" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>3186</v>
       </c>
@@ -45806,7 +45935,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1052" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>3189</v>
       </c>
@@ -45839,7 +45968,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1053" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>3192</v>
       </c>
@@ -45872,7 +46001,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1054" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>3195</v>
       </c>
@@ -45905,7 +46034,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1055" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>3198</v>
       </c>
@@ -45938,7 +46067,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1056" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>3201</v>
       </c>
@@ -46070,7 +46199,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1060" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>3216</v>
       </c>
@@ -46103,7 +46232,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1061" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>3219</v>
       </c>
@@ -46136,7 +46265,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1062" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>3222</v>
       </c>
@@ -46268,7 +46397,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1066" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>3234</v>
       </c>
@@ -46301,7 +46430,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1067" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>3237</v>
       </c>
@@ -46499,7 +46628,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1073" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>3255</v>
       </c>
@@ -46631,7 +46760,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1077" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>3267</v>
       </c>
@@ -46664,7 +46793,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1078" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>3270</v>
       </c>
@@ -46730,7 +46859,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1080" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>3276</v>
       </c>
@@ -46763,7 +46892,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1081" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
         <v>3279</v>
       </c>
@@ -46796,7 +46925,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1082" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>3282</v>
       </c>
@@ -46862,7 +46991,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1084" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>3288</v>
       </c>
@@ -46895,7 +47024,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1085" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>3291</v>
       </c>
@@ -46961,7 +47090,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1087" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>3297</v>
       </c>
@@ -46994,7 +47123,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1088" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>3300</v>
       </c>
@@ -47159,7 +47288,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1093" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>3314</v>
       </c>
@@ -47192,7 +47321,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1094" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>3317</v>
       </c>
@@ -47390,7 +47519,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>3335</v>
       </c>
@@ -47522,7 +47651,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>3347</v>
       </c>
@@ -47555,7 +47684,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
         <v>3350</v>
       </c>
@@ -47621,7 +47750,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>3356</v>
       </c>
@@ -47654,7 +47783,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>3359</v>
       </c>
@@ -47687,7 +47816,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
         <v>3362</v>
       </c>
@@ -47753,7 +47882,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>3368</v>
       </c>
@@ -47786,7 +47915,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>3371</v>
       </c>
@@ -47852,7 +47981,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>3377</v>
       </c>
@@ -47885,7 +48014,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>3380</v>
       </c>
@@ -47985,13 +48114,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1117">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K1117"/>
   <conditionalFormatting sqref="A2:K1117">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$I2=0</formula>
@@ -48005,9 +48128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52276,173 +52399,3101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="59.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G2" t="str">
+        <f>""""&amp;A2&amp;""","</f>
+        <v>"B05001_001E",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">""""&amp;A3&amp;""","</f>
+        <v>"B05001_002E",</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3403</v>
+      </c>
+      <c r="I3" t="str">
+        <f>H3&amp;" = "&amp;A3&amp;"/"&amp;LEFT(A3,6)&amp;"_001E,"</f>
+        <v>perc_us_citizen = B05001_002E/B05001_001E,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08006_001E",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08006_002E",</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I10" si="1">H5&amp;" = "&amp;A5&amp;"/"&amp;LEFT(A5,6)&amp;"_001E,"</f>
+        <v>perc_transport_to_work_car = B08006_002E/B08006_001E,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08006_008E",</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3406</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>perc_transport_to_work_public = B08006_008E/B08006_001E,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08006_014E",</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3407</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>perc_transport_to_work_bike = B08006_014E/B08006_001E,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08006_015E",</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>perc_transport_to_work_walk = B08006_015E/B08006_001E,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08006_016E",</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3409</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>perc_transport_to_work_taxi = B08006_016E/B08006_001E,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08006_017E",</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3410</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>perc_transport_to_work_workathome = B08006_017E/B08006_001E,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08007_001E",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08007_002E",</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3411</v>
+      </c>
+      <c r="I12" t="str">
+        <f>H12&amp;" = "&amp;A12&amp;"/"&amp;LEFT(A12,6)&amp;"_001E,"</f>
+        <v>perc_work_in_state_of_residence = B08007_002E/B08007_001E,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B13" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D13" t="s">
+        <v>533</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08013_001E",</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>542</v>
+      </c>
+      <c r="B14" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C14" t="s">
+        <v>543</v>
+      </c>
+      <c r="D14" t="s">
+        <v>544</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08015_001E",</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>603</v>
+      </c>
+      <c r="B15" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>604</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_001E",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C16" t="s">
+        <v>402</v>
+      </c>
+      <c r="D16" t="s">
+        <v>604</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_002E",</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3420</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ref="I16:I40" si="2">H16&amp;" = "&amp;A16&amp;"/"&amp;LEFT(A16,6)&amp;"_001E,"</f>
+        <v>perc_leave_for_work_12ato459 = B08302_002E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>609</v>
+      </c>
+      <c r="B17" t="s">
+        <v>605</v>
+      </c>
+      <c r="C17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D17" t="s">
+        <v>604</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_003E",</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3414</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_5to529 = B08302_003E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>611</v>
+      </c>
+      <c r="B18" t="s">
+        <v>605</v>
+      </c>
+      <c r="C18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" t="s">
+        <v>604</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_004E",</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3415</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_530to559 = B08302_004E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" t="s">
+        <v>605</v>
+      </c>
+      <c r="C19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" t="s">
+        <v>604</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_005E",</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3416</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_6to629 = B08302_005E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>615</v>
+      </c>
+      <c r="B20" t="s">
+        <v>605</v>
+      </c>
+      <c r="C20" t="s">
+        <v>414</v>
+      </c>
+      <c r="D20" t="s">
+        <v>604</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_006E",</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3417</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_630to659 = B08302_006E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>617</v>
+      </c>
+      <c r="B21" t="s">
+        <v>605</v>
+      </c>
+      <c r="C21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" t="s">
+        <v>604</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_007E",</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3418</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_7to729 = B08302_007E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>619</v>
+      </c>
+      <c r="B22" t="s">
+        <v>605</v>
+      </c>
+      <c r="C22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" t="s">
+        <v>604</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_008E",</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3419</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_730to759 = B08302_008E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>621</v>
+      </c>
+      <c r="B23" t="s">
+        <v>605</v>
+      </c>
+      <c r="C23" t="s">
+        <v>423</v>
+      </c>
+      <c r="D23" t="s">
+        <v>604</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_009E",</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3421</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_8to829 = B08302_009E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>623</v>
+      </c>
+      <c r="B24" t="s">
+        <v>605</v>
+      </c>
+      <c r="C24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D24" t="s">
+        <v>604</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_010E",</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3422</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_830to859 = B08302_010E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>625</v>
+      </c>
+      <c r="B25" t="s">
+        <v>605</v>
+      </c>
+      <c r="C25" t="s">
+        <v>429</v>
+      </c>
+      <c r="D25" t="s">
+        <v>604</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_011E",</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3423</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_9to959 = B08302_011E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>627</v>
+      </c>
+      <c r="B26" t="s">
+        <v>605</v>
+      </c>
+      <c r="C26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" t="s">
+        <v>604</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_012E",</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3424</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_10to1059 = B08302_012E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>629</v>
+      </c>
+      <c r="B27" t="s">
+        <v>605</v>
+      </c>
+      <c r="C27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D27" t="s">
+        <v>604</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_013E",</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3425</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_11to1159 = B08302_013E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>631</v>
+      </c>
+      <c r="B28" t="s">
+        <v>605</v>
+      </c>
+      <c r="C28" t="s">
+        <v>438</v>
+      </c>
+      <c r="D28" t="s">
+        <v>604</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_014E",</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3426</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_12pto359 = B08302_014E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>633</v>
+      </c>
+      <c r="B29" t="s">
+        <v>605</v>
+      </c>
+      <c r="C29" t="s">
+        <v>441</v>
+      </c>
+      <c r="D29" t="s">
+        <v>604</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>"B08302_015E",</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3427</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_leave_for_work_4pto1159 = B08302_015E/B08302_001E,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>635</v>
+      </c>
+      <c r="B30" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>636</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>"B09010_001E",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>639</v>
+      </c>
+      <c r="B31" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" t="s">
+        <v>640</v>
+      </c>
+      <c r="D31" t="s">
+        <v>636</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>"B09010_002E",</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3428</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_with_Supplemental_Security_Income_cash_public_assistance_income_or_Food_Stamps_SNAP = B09010_002E/B09010_001E,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>675</v>
+      </c>
+      <c r="B32" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>676</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>"B11001_001E",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>682</v>
+      </c>
+      <c r="B33" t="s">
+        <v>677</v>
+      </c>
+      <c r="C33" t="s">
+        <v>683</v>
+      </c>
+      <c r="D33" t="s">
+        <v>676</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>"B11001_003E",</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3429</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_married_family = B11001_003E/B11001_001E,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>694</v>
+      </c>
+      <c r="B34" t="s">
+        <v>677</v>
+      </c>
+      <c r="C34" t="s">
+        <v>695</v>
+      </c>
+      <c r="D34" t="s">
+        <v>676</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>"B11001_007E",</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3430</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_nonfamily = B11001_007E/B11001_001E,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>759</v>
+      </c>
+      <c r="B35" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>760</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>"B12006_001E",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>763</v>
+      </c>
+      <c r="B36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C36" t="s">
+        <v>764</v>
+      </c>
+      <c r="D36" t="s">
+        <v>760</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>"B12006_002E",</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3431</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_never_married = B12006_002E/B12006_001E,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>796</v>
+      </c>
+      <c r="B37" t="s">
+        <v>761</v>
+      </c>
+      <c r="C37" t="s">
+        <v>797</v>
+      </c>
+      <c r="D37" t="s">
+        <v>760</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>"B12006_013E",</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3432</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_now_married = B12006_013E/B12006_001E,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>829</v>
+      </c>
+      <c r="B38" t="s">
+        <v>761</v>
+      </c>
+      <c r="C38" t="s">
+        <v>830</v>
+      </c>
+      <c r="D38" t="s">
+        <v>760</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>"B12006_024E",</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3433</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_separated = B12006_024E/B12006_001E,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>862</v>
+      </c>
+      <c r="B39" t="s">
+        <v>761</v>
+      </c>
+      <c r="C39" t="s">
+        <v>863</v>
+      </c>
+      <c r="D39" t="s">
+        <v>760</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>"B12006_035E",</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_widowed = B12006_035E/B12006_001E,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>895</v>
+      </c>
+      <c r="B40" t="s">
+        <v>761</v>
+      </c>
+      <c r="C40" t="s">
+        <v>896</v>
+      </c>
+      <c r="D40" t="s">
+        <v>760</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>"B12006_046E",</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3435</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v>perc_divorced = B12006_046E/B12006_001E,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>928</v>
+      </c>
+      <c r="B41" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C41" t="s">
+        <v>929</v>
+      </c>
+      <c r="D41" t="s">
+        <v>930</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>"B12007_001E",</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3436</v>
+      </c>
+      <c r="I41" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>933</v>
+      </c>
+      <c r="B42" t="s">
+        <v>931</v>
+      </c>
+      <c r="C42" t="s">
+        <v>934</v>
+      </c>
+      <c r="D42" t="s">
+        <v>930</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>"B12007_002E",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>936</v>
+      </c>
+      <c r="B43" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>937</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>"B13002_001E",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>943</v>
+      </c>
+      <c r="B44" t="s">
+        <v>938</v>
+      </c>
+      <c r="C44" t="s">
+        <v>944</v>
+      </c>
+      <c r="D44" t="s">
+        <v>937</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>"B13002_003E",</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3438</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" ref="I44:I45" si="3">H44&amp;" = "&amp;A44&amp;"/"&amp;LEFT(A44,6)&amp;"_001E,"</f>
+        <v>perc_hadbaby_pastyear_married = B13002_003E/B13002_001E,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>955</v>
+      </c>
+      <c r="B45" t="s">
+        <v>938</v>
+      </c>
+      <c r="C45" t="s">
+        <v>956</v>
+      </c>
+      <c r="D45" t="s">
+        <v>937</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>"B13002_007E",</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3439</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>perc_hadbaby_pastyear_unmarried = B13002_007E/B13002_001E,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B46" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C46" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17011_001E",</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B47" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_001E",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_002E",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_003E",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_004E",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_005E",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_006E",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_007E",</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_008E",</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_009E",</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_010E",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_011E",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_012E",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>"B17026_013E",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B60" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>"B19052_001E",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>"B19052_002E",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B62" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>"B19053_001E",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>"B19053_002E",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B64" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>"B19055_001E",</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>"B19055_002E",</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B66" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>"B19056_001E",</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G118" si="4">""""&amp;A67&amp;""","</f>
+        <v>"B19056_002E",</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B68" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="4"/>
+        <v>"B19057_001E",</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="4"/>
+        <v>"B19057_002E",</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B70" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="4"/>
+        <v>"B19058_001E",</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="4"/>
+        <v>"B19058_002E",</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B72" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="4"/>
+        <v>"B19059_001E",</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="4"/>
+        <v>"B19059_002E",</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B74" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C74" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="4"/>
+        <v>"B23018_001E",</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B75" t="s">
         <v>3018</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3017</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="4"/>
+        <v>"B25002_001E",</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3017</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="4"/>
+        <v>"B25002_002E",</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B77" t="s">
         <v>3028</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="4"/>
+        <v>"B25003_001E",</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="4"/>
+        <v>"B25003_002E",</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B79" t="s">
         <v>3105</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C79" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="4"/>
+        <v>"B25018_001E",</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B80" t="s">
         <v>3111</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C80" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3109</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="4"/>
+        <v>"B25035_001E",</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B81" t="s">
         <v>3138</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C81" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="4"/>
+        <v>"B25058_001E",</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B82" t="s">
         <v>3177</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C82" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="4"/>
+        <v>"B25077_001E",</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B83" t="s">
         <v>3181</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="4"/>
+        <v>"B25081_001E",</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="4"/>
+        <v>"B25081_002E",</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B85" t="s">
         <v>3207</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="C85" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="4"/>
+        <v>"B25105_001E",</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B86" t="s">
         <v>3211</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3210</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="4"/>
+        <v>"B99163_001E",</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3210</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="4"/>
+        <v>"B99163_002E",</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B88" t="s">
         <v>3227</v>
       </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_001E",</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C89" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_002E",</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_003E",</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_006E",</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_007E",</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_008E",</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_009E",</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3253</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_010E",</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_012E",</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_013E",</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_014E",</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_017E",</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3286</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_021E",</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_024E",</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_027E",</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_028E",</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C104" t="s">
+        <v>303</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_029E",</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_030E",</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_033E",</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3324</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_034E",</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_035E",</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3330</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_036E",</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_037E",</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_039E",</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_040E",</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_041E",</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_044E",</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3366</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_048E",</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_051E",</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_054E",</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="4"/>
+        <v>"C24040_055E",</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A31">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I1=0</formula>
+  <autoFilter ref="A1:I118"/>
+  <conditionalFormatting sqref="A2:I118">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$E2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
